--- a/data/BOC/FTD/FTDE/old/exhibit_history.xlsx
+++ b/data/BOC/FTD/FTDE/old/exhibit_history.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\econ019fs\ftd53\tdsb2\Internet\Current\statistics\historical\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF2FB810-5B43-47C8-8F70-6C3943D95CDF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{431F7067-5167-4625-8DFA-DB8FD2BDCF0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A6691191-0E70-4ADB-A58E-7BB064C0D074}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1A136199-3254-4ACB-8E57-1A8F8090F576}"/>
   </bookViews>
   <sheets>
     <sheet name="exhibit_history" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
     <definedName name="PETROREAL">#REF!</definedName>
     <definedName name="PRINT" localSheetId="0">#REF!</definedName>
     <definedName name="PRINT">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">exhibit_history!$A$1:$K$427</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">exhibit_history!$A$1:$K$441</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">exhibit_history!$1:$4</definedName>
     <definedName name="qlookup">[2]Codes!$A$22:$B$25</definedName>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="57">
   <si>
     <t xml:space="preserve">U.S. International Trade in Goods and Services, 1992 - Present </t>
   </si>
@@ -315,7 +315,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -703,12 +703,47 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="double">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -822,10 +857,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 20" xfId="1" xr:uid="{29F92505-15C0-4C71-81EE-ACE008E0644F}"/>
+    <cellStyle name="Normal 20" xfId="1" xr:uid="{ACE1DD79-252A-41C9-B317-DFB556BB0DA8}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -845,8 +892,8 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Home"/>
+      <sheetName val="raw"/>
       <sheetName val="exhibit_history"/>
-      <sheetName val="raw"/>
       <sheetName val="Dates"/>
     </sheetNames>
     <sheetDataSet>
@@ -51706,212 +51753,212 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0FBD1A5-F486-4C30-8C07-5ACB20D2EB82}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81C2D866-2D64-4029-A235-ABE360670FF5}">
   <sheetPr transitionEvaluation="1" codeName="Sheet2"/>
-  <dimension ref="A1:IS427"/>
+  <dimension ref="A1:IS441"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" colorId="22" zoomScale="65" zoomScaleNormal="65" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="12.765625" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="14.77734375" style="55" customWidth="1"/>
-    <col min="2" max="10" width="13.77734375" style="2" customWidth="1"/>
-    <col min="11" max="256" width="12.77734375" style="2"/>
-    <col min="257" max="257" width="14.77734375" style="2" customWidth="1"/>
-    <col min="258" max="266" width="13.77734375" style="2" customWidth="1"/>
-    <col min="267" max="512" width="12.77734375" style="2"/>
-    <col min="513" max="513" width="14.77734375" style="2" customWidth="1"/>
-    <col min="514" max="522" width="13.77734375" style="2" customWidth="1"/>
-    <col min="523" max="768" width="12.77734375" style="2"/>
-    <col min="769" max="769" width="14.77734375" style="2" customWidth="1"/>
-    <col min="770" max="778" width="13.77734375" style="2" customWidth="1"/>
-    <col min="779" max="1024" width="12.77734375" style="2"/>
-    <col min="1025" max="1025" width="14.77734375" style="2" customWidth="1"/>
-    <col min="1026" max="1034" width="13.77734375" style="2" customWidth="1"/>
-    <col min="1035" max="1280" width="12.77734375" style="2"/>
-    <col min="1281" max="1281" width="14.77734375" style="2" customWidth="1"/>
-    <col min="1282" max="1290" width="13.77734375" style="2" customWidth="1"/>
-    <col min="1291" max="1536" width="12.77734375" style="2"/>
-    <col min="1537" max="1537" width="14.77734375" style="2" customWidth="1"/>
-    <col min="1538" max="1546" width="13.77734375" style="2" customWidth="1"/>
-    <col min="1547" max="1792" width="12.77734375" style="2"/>
-    <col min="1793" max="1793" width="14.77734375" style="2" customWidth="1"/>
-    <col min="1794" max="1802" width="13.77734375" style="2" customWidth="1"/>
-    <col min="1803" max="2048" width="12.77734375" style="2"/>
-    <col min="2049" max="2049" width="14.77734375" style="2" customWidth="1"/>
-    <col min="2050" max="2058" width="13.77734375" style="2" customWidth="1"/>
-    <col min="2059" max="2304" width="12.77734375" style="2"/>
-    <col min="2305" max="2305" width="14.77734375" style="2" customWidth="1"/>
-    <col min="2306" max="2314" width="13.77734375" style="2" customWidth="1"/>
-    <col min="2315" max="2560" width="12.77734375" style="2"/>
-    <col min="2561" max="2561" width="14.77734375" style="2" customWidth="1"/>
-    <col min="2562" max="2570" width="13.77734375" style="2" customWidth="1"/>
-    <col min="2571" max="2816" width="12.77734375" style="2"/>
-    <col min="2817" max="2817" width="14.77734375" style="2" customWidth="1"/>
-    <col min="2818" max="2826" width="13.77734375" style="2" customWidth="1"/>
-    <col min="2827" max="3072" width="12.77734375" style="2"/>
-    <col min="3073" max="3073" width="14.77734375" style="2" customWidth="1"/>
-    <col min="3074" max="3082" width="13.77734375" style="2" customWidth="1"/>
-    <col min="3083" max="3328" width="12.77734375" style="2"/>
-    <col min="3329" max="3329" width="14.77734375" style="2" customWidth="1"/>
-    <col min="3330" max="3338" width="13.77734375" style="2" customWidth="1"/>
-    <col min="3339" max="3584" width="12.77734375" style="2"/>
-    <col min="3585" max="3585" width="14.77734375" style="2" customWidth="1"/>
-    <col min="3586" max="3594" width="13.77734375" style="2" customWidth="1"/>
-    <col min="3595" max="3840" width="12.77734375" style="2"/>
-    <col min="3841" max="3841" width="14.77734375" style="2" customWidth="1"/>
-    <col min="3842" max="3850" width="13.77734375" style="2" customWidth="1"/>
-    <col min="3851" max="4096" width="12.77734375" style="2"/>
-    <col min="4097" max="4097" width="14.77734375" style="2" customWidth="1"/>
-    <col min="4098" max="4106" width="13.77734375" style="2" customWidth="1"/>
-    <col min="4107" max="4352" width="12.77734375" style="2"/>
-    <col min="4353" max="4353" width="14.77734375" style="2" customWidth="1"/>
-    <col min="4354" max="4362" width="13.77734375" style="2" customWidth="1"/>
-    <col min="4363" max="4608" width="12.77734375" style="2"/>
-    <col min="4609" max="4609" width="14.77734375" style="2" customWidth="1"/>
-    <col min="4610" max="4618" width="13.77734375" style="2" customWidth="1"/>
-    <col min="4619" max="4864" width="12.77734375" style="2"/>
-    <col min="4865" max="4865" width="14.77734375" style="2" customWidth="1"/>
-    <col min="4866" max="4874" width="13.77734375" style="2" customWidth="1"/>
-    <col min="4875" max="5120" width="12.77734375" style="2"/>
-    <col min="5121" max="5121" width="14.77734375" style="2" customWidth="1"/>
-    <col min="5122" max="5130" width="13.77734375" style="2" customWidth="1"/>
-    <col min="5131" max="5376" width="12.77734375" style="2"/>
-    <col min="5377" max="5377" width="14.77734375" style="2" customWidth="1"/>
-    <col min="5378" max="5386" width="13.77734375" style="2" customWidth="1"/>
-    <col min="5387" max="5632" width="12.77734375" style="2"/>
-    <col min="5633" max="5633" width="14.77734375" style="2" customWidth="1"/>
-    <col min="5634" max="5642" width="13.77734375" style="2" customWidth="1"/>
-    <col min="5643" max="5888" width="12.77734375" style="2"/>
-    <col min="5889" max="5889" width="14.77734375" style="2" customWidth="1"/>
-    <col min="5890" max="5898" width="13.77734375" style="2" customWidth="1"/>
-    <col min="5899" max="6144" width="12.77734375" style="2"/>
-    <col min="6145" max="6145" width="14.77734375" style="2" customWidth="1"/>
-    <col min="6146" max="6154" width="13.77734375" style="2" customWidth="1"/>
-    <col min="6155" max="6400" width="12.77734375" style="2"/>
-    <col min="6401" max="6401" width="14.77734375" style="2" customWidth="1"/>
-    <col min="6402" max="6410" width="13.77734375" style="2" customWidth="1"/>
-    <col min="6411" max="6656" width="12.77734375" style="2"/>
-    <col min="6657" max="6657" width="14.77734375" style="2" customWidth="1"/>
-    <col min="6658" max="6666" width="13.77734375" style="2" customWidth="1"/>
-    <col min="6667" max="6912" width="12.77734375" style="2"/>
-    <col min="6913" max="6913" width="14.77734375" style="2" customWidth="1"/>
-    <col min="6914" max="6922" width="13.77734375" style="2" customWidth="1"/>
-    <col min="6923" max="7168" width="12.77734375" style="2"/>
-    <col min="7169" max="7169" width="14.77734375" style="2" customWidth="1"/>
-    <col min="7170" max="7178" width="13.77734375" style="2" customWidth="1"/>
-    <col min="7179" max="7424" width="12.77734375" style="2"/>
-    <col min="7425" max="7425" width="14.77734375" style="2" customWidth="1"/>
-    <col min="7426" max="7434" width="13.77734375" style="2" customWidth="1"/>
-    <col min="7435" max="7680" width="12.77734375" style="2"/>
-    <col min="7681" max="7681" width="14.77734375" style="2" customWidth="1"/>
-    <col min="7682" max="7690" width="13.77734375" style="2" customWidth="1"/>
-    <col min="7691" max="7936" width="12.77734375" style="2"/>
-    <col min="7937" max="7937" width="14.77734375" style="2" customWidth="1"/>
-    <col min="7938" max="7946" width="13.77734375" style="2" customWidth="1"/>
-    <col min="7947" max="8192" width="12.77734375" style="2"/>
-    <col min="8193" max="8193" width="14.77734375" style="2" customWidth="1"/>
-    <col min="8194" max="8202" width="13.77734375" style="2" customWidth="1"/>
-    <col min="8203" max="8448" width="12.77734375" style="2"/>
-    <col min="8449" max="8449" width="14.77734375" style="2" customWidth="1"/>
-    <col min="8450" max="8458" width="13.77734375" style="2" customWidth="1"/>
-    <col min="8459" max="8704" width="12.77734375" style="2"/>
-    <col min="8705" max="8705" width="14.77734375" style="2" customWidth="1"/>
-    <col min="8706" max="8714" width="13.77734375" style="2" customWidth="1"/>
-    <col min="8715" max="8960" width="12.77734375" style="2"/>
-    <col min="8961" max="8961" width="14.77734375" style="2" customWidth="1"/>
-    <col min="8962" max="8970" width="13.77734375" style="2" customWidth="1"/>
-    <col min="8971" max="9216" width="12.77734375" style="2"/>
-    <col min="9217" max="9217" width="14.77734375" style="2" customWidth="1"/>
-    <col min="9218" max="9226" width="13.77734375" style="2" customWidth="1"/>
-    <col min="9227" max="9472" width="12.77734375" style="2"/>
-    <col min="9473" max="9473" width="14.77734375" style="2" customWidth="1"/>
-    <col min="9474" max="9482" width="13.77734375" style="2" customWidth="1"/>
-    <col min="9483" max="9728" width="12.77734375" style="2"/>
-    <col min="9729" max="9729" width="14.77734375" style="2" customWidth="1"/>
-    <col min="9730" max="9738" width="13.77734375" style="2" customWidth="1"/>
-    <col min="9739" max="9984" width="12.77734375" style="2"/>
-    <col min="9985" max="9985" width="14.77734375" style="2" customWidth="1"/>
-    <col min="9986" max="9994" width="13.77734375" style="2" customWidth="1"/>
-    <col min="9995" max="10240" width="12.77734375" style="2"/>
-    <col min="10241" max="10241" width="14.77734375" style="2" customWidth="1"/>
-    <col min="10242" max="10250" width="13.77734375" style="2" customWidth="1"/>
-    <col min="10251" max="10496" width="12.77734375" style="2"/>
-    <col min="10497" max="10497" width="14.77734375" style="2" customWidth="1"/>
-    <col min="10498" max="10506" width="13.77734375" style="2" customWidth="1"/>
-    <col min="10507" max="10752" width="12.77734375" style="2"/>
-    <col min="10753" max="10753" width="14.77734375" style="2" customWidth="1"/>
-    <col min="10754" max="10762" width="13.77734375" style="2" customWidth="1"/>
-    <col min="10763" max="11008" width="12.77734375" style="2"/>
-    <col min="11009" max="11009" width="14.77734375" style="2" customWidth="1"/>
-    <col min="11010" max="11018" width="13.77734375" style="2" customWidth="1"/>
-    <col min="11019" max="11264" width="12.77734375" style="2"/>
-    <col min="11265" max="11265" width="14.77734375" style="2" customWidth="1"/>
-    <col min="11266" max="11274" width="13.77734375" style="2" customWidth="1"/>
-    <col min="11275" max="11520" width="12.77734375" style="2"/>
-    <col min="11521" max="11521" width="14.77734375" style="2" customWidth="1"/>
-    <col min="11522" max="11530" width="13.77734375" style="2" customWidth="1"/>
-    <col min="11531" max="11776" width="12.77734375" style="2"/>
-    <col min="11777" max="11777" width="14.77734375" style="2" customWidth="1"/>
-    <col min="11778" max="11786" width="13.77734375" style="2" customWidth="1"/>
-    <col min="11787" max="12032" width="12.77734375" style="2"/>
-    <col min="12033" max="12033" width="14.77734375" style="2" customWidth="1"/>
-    <col min="12034" max="12042" width="13.77734375" style="2" customWidth="1"/>
-    <col min="12043" max="12288" width="12.77734375" style="2"/>
-    <col min="12289" max="12289" width="14.77734375" style="2" customWidth="1"/>
-    <col min="12290" max="12298" width="13.77734375" style="2" customWidth="1"/>
-    <col min="12299" max="12544" width="12.77734375" style="2"/>
-    <col min="12545" max="12545" width="14.77734375" style="2" customWidth="1"/>
-    <col min="12546" max="12554" width="13.77734375" style="2" customWidth="1"/>
-    <col min="12555" max="12800" width="12.77734375" style="2"/>
-    <col min="12801" max="12801" width="14.77734375" style="2" customWidth="1"/>
-    <col min="12802" max="12810" width="13.77734375" style="2" customWidth="1"/>
-    <col min="12811" max="13056" width="12.77734375" style="2"/>
-    <col min="13057" max="13057" width="14.77734375" style="2" customWidth="1"/>
-    <col min="13058" max="13066" width="13.77734375" style="2" customWidth="1"/>
-    <col min="13067" max="13312" width="12.77734375" style="2"/>
-    <col min="13313" max="13313" width="14.77734375" style="2" customWidth="1"/>
-    <col min="13314" max="13322" width="13.77734375" style="2" customWidth="1"/>
-    <col min="13323" max="13568" width="12.77734375" style="2"/>
-    <col min="13569" max="13569" width="14.77734375" style="2" customWidth="1"/>
-    <col min="13570" max="13578" width="13.77734375" style="2" customWidth="1"/>
-    <col min="13579" max="13824" width="12.77734375" style="2"/>
-    <col min="13825" max="13825" width="14.77734375" style="2" customWidth="1"/>
-    <col min="13826" max="13834" width="13.77734375" style="2" customWidth="1"/>
-    <col min="13835" max="14080" width="12.77734375" style="2"/>
-    <col min="14081" max="14081" width="14.77734375" style="2" customWidth="1"/>
-    <col min="14082" max="14090" width="13.77734375" style="2" customWidth="1"/>
-    <col min="14091" max="14336" width="12.77734375" style="2"/>
-    <col min="14337" max="14337" width="14.77734375" style="2" customWidth="1"/>
-    <col min="14338" max="14346" width="13.77734375" style="2" customWidth="1"/>
-    <col min="14347" max="14592" width="12.77734375" style="2"/>
-    <col min="14593" max="14593" width="14.77734375" style="2" customWidth="1"/>
-    <col min="14594" max="14602" width="13.77734375" style="2" customWidth="1"/>
-    <col min="14603" max="14848" width="12.77734375" style="2"/>
-    <col min="14849" max="14849" width="14.77734375" style="2" customWidth="1"/>
-    <col min="14850" max="14858" width="13.77734375" style="2" customWidth="1"/>
-    <col min="14859" max="15104" width="12.77734375" style="2"/>
-    <col min="15105" max="15105" width="14.77734375" style="2" customWidth="1"/>
-    <col min="15106" max="15114" width="13.77734375" style="2" customWidth="1"/>
-    <col min="15115" max="15360" width="12.77734375" style="2"/>
-    <col min="15361" max="15361" width="14.77734375" style="2" customWidth="1"/>
-    <col min="15362" max="15370" width="13.77734375" style="2" customWidth="1"/>
-    <col min="15371" max="15616" width="12.77734375" style="2"/>
-    <col min="15617" max="15617" width="14.77734375" style="2" customWidth="1"/>
-    <col min="15618" max="15626" width="13.77734375" style="2" customWidth="1"/>
-    <col min="15627" max="15872" width="12.77734375" style="2"/>
-    <col min="15873" max="15873" width="14.77734375" style="2" customWidth="1"/>
-    <col min="15874" max="15882" width="13.77734375" style="2" customWidth="1"/>
-    <col min="15883" max="16128" width="12.77734375" style="2"/>
-    <col min="16129" max="16129" width="14.77734375" style="2" customWidth="1"/>
-    <col min="16130" max="16138" width="13.77734375" style="2" customWidth="1"/>
-    <col min="16139" max="16384" width="12.77734375" style="2"/>
+    <col min="1" max="1" width="14.765625" style="55" customWidth="1"/>
+    <col min="2" max="10" width="13.765625" style="2" customWidth="1"/>
+    <col min="11" max="256" width="12.765625" style="2"/>
+    <col min="257" max="257" width="14.765625" style="2" customWidth="1"/>
+    <col min="258" max="266" width="13.765625" style="2" customWidth="1"/>
+    <col min="267" max="512" width="12.765625" style="2"/>
+    <col min="513" max="513" width="14.765625" style="2" customWidth="1"/>
+    <col min="514" max="522" width="13.765625" style="2" customWidth="1"/>
+    <col min="523" max="768" width="12.765625" style="2"/>
+    <col min="769" max="769" width="14.765625" style="2" customWidth="1"/>
+    <col min="770" max="778" width="13.765625" style="2" customWidth="1"/>
+    <col min="779" max="1024" width="12.765625" style="2"/>
+    <col min="1025" max="1025" width="14.765625" style="2" customWidth="1"/>
+    <col min="1026" max="1034" width="13.765625" style="2" customWidth="1"/>
+    <col min="1035" max="1280" width="12.765625" style="2"/>
+    <col min="1281" max="1281" width="14.765625" style="2" customWidth="1"/>
+    <col min="1282" max="1290" width="13.765625" style="2" customWidth="1"/>
+    <col min="1291" max="1536" width="12.765625" style="2"/>
+    <col min="1537" max="1537" width="14.765625" style="2" customWidth="1"/>
+    <col min="1538" max="1546" width="13.765625" style="2" customWidth="1"/>
+    <col min="1547" max="1792" width="12.765625" style="2"/>
+    <col min="1793" max="1793" width="14.765625" style="2" customWidth="1"/>
+    <col min="1794" max="1802" width="13.765625" style="2" customWidth="1"/>
+    <col min="1803" max="2048" width="12.765625" style="2"/>
+    <col min="2049" max="2049" width="14.765625" style="2" customWidth="1"/>
+    <col min="2050" max="2058" width="13.765625" style="2" customWidth="1"/>
+    <col min="2059" max="2304" width="12.765625" style="2"/>
+    <col min="2305" max="2305" width="14.765625" style="2" customWidth="1"/>
+    <col min="2306" max="2314" width="13.765625" style="2" customWidth="1"/>
+    <col min="2315" max="2560" width="12.765625" style="2"/>
+    <col min="2561" max="2561" width="14.765625" style="2" customWidth="1"/>
+    <col min="2562" max="2570" width="13.765625" style="2" customWidth="1"/>
+    <col min="2571" max="2816" width="12.765625" style="2"/>
+    <col min="2817" max="2817" width="14.765625" style="2" customWidth="1"/>
+    <col min="2818" max="2826" width="13.765625" style="2" customWidth="1"/>
+    <col min="2827" max="3072" width="12.765625" style="2"/>
+    <col min="3073" max="3073" width="14.765625" style="2" customWidth="1"/>
+    <col min="3074" max="3082" width="13.765625" style="2" customWidth="1"/>
+    <col min="3083" max="3328" width="12.765625" style="2"/>
+    <col min="3329" max="3329" width="14.765625" style="2" customWidth="1"/>
+    <col min="3330" max="3338" width="13.765625" style="2" customWidth="1"/>
+    <col min="3339" max="3584" width="12.765625" style="2"/>
+    <col min="3585" max="3585" width="14.765625" style="2" customWidth="1"/>
+    <col min="3586" max="3594" width="13.765625" style="2" customWidth="1"/>
+    <col min="3595" max="3840" width="12.765625" style="2"/>
+    <col min="3841" max="3841" width="14.765625" style="2" customWidth="1"/>
+    <col min="3842" max="3850" width="13.765625" style="2" customWidth="1"/>
+    <col min="3851" max="4096" width="12.765625" style="2"/>
+    <col min="4097" max="4097" width="14.765625" style="2" customWidth="1"/>
+    <col min="4098" max="4106" width="13.765625" style="2" customWidth="1"/>
+    <col min="4107" max="4352" width="12.765625" style="2"/>
+    <col min="4353" max="4353" width="14.765625" style="2" customWidth="1"/>
+    <col min="4354" max="4362" width="13.765625" style="2" customWidth="1"/>
+    <col min="4363" max="4608" width="12.765625" style="2"/>
+    <col min="4609" max="4609" width="14.765625" style="2" customWidth="1"/>
+    <col min="4610" max="4618" width="13.765625" style="2" customWidth="1"/>
+    <col min="4619" max="4864" width="12.765625" style="2"/>
+    <col min="4865" max="4865" width="14.765625" style="2" customWidth="1"/>
+    <col min="4866" max="4874" width="13.765625" style="2" customWidth="1"/>
+    <col min="4875" max="5120" width="12.765625" style="2"/>
+    <col min="5121" max="5121" width="14.765625" style="2" customWidth="1"/>
+    <col min="5122" max="5130" width="13.765625" style="2" customWidth="1"/>
+    <col min="5131" max="5376" width="12.765625" style="2"/>
+    <col min="5377" max="5377" width="14.765625" style="2" customWidth="1"/>
+    <col min="5378" max="5386" width="13.765625" style="2" customWidth="1"/>
+    <col min="5387" max="5632" width="12.765625" style="2"/>
+    <col min="5633" max="5633" width="14.765625" style="2" customWidth="1"/>
+    <col min="5634" max="5642" width="13.765625" style="2" customWidth="1"/>
+    <col min="5643" max="5888" width="12.765625" style="2"/>
+    <col min="5889" max="5889" width="14.765625" style="2" customWidth="1"/>
+    <col min="5890" max="5898" width="13.765625" style="2" customWidth="1"/>
+    <col min="5899" max="6144" width="12.765625" style="2"/>
+    <col min="6145" max="6145" width="14.765625" style="2" customWidth="1"/>
+    <col min="6146" max="6154" width="13.765625" style="2" customWidth="1"/>
+    <col min="6155" max="6400" width="12.765625" style="2"/>
+    <col min="6401" max="6401" width="14.765625" style="2" customWidth="1"/>
+    <col min="6402" max="6410" width="13.765625" style="2" customWidth="1"/>
+    <col min="6411" max="6656" width="12.765625" style="2"/>
+    <col min="6657" max="6657" width="14.765625" style="2" customWidth="1"/>
+    <col min="6658" max="6666" width="13.765625" style="2" customWidth="1"/>
+    <col min="6667" max="6912" width="12.765625" style="2"/>
+    <col min="6913" max="6913" width="14.765625" style="2" customWidth="1"/>
+    <col min="6914" max="6922" width="13.765625" style="2" customWidth="1"/>
+    <col min="6923" max="7168" width="12.765625" style="2"/>
+    <col min="7169" max="7169" width="14.765625" style="2" customWidth="1"/>
+    <col min="7170" max="7178" width="13.765625" style="2" customWidth="1"/>
+    <col min="7179" max="7424" width="12.765625" style="2"/>
+    <col min="7425" max="7425" width="14.765625" style="2" customWidth="1"/>
+    <col min="7426" max="7434" width="13.765625" style="2" customWidth="1"/>
+    <col min="7435" max="7680" width="12.765625" style="2"/>
+    <col min="7681" max="7681" width="14.765625" style="2" customWidth="1"/>
+    <col min="7682" max="7690" width="13.765625" style="2" customWidth="1"/>
+    <col min="7691" max="7936" width="12.765625" style="2"/>
+    <col min="7937" max="7937" width="14.765625" style="2" customWidth="1"/>
+    <col min="7938" max="7946" width="13.765625" style="2" customWidth="1"/>
+    <col min="7947" max="8192" width="12.765625" style="2"/>
+    <col min="8193" max="8193" width="14.765625" style="2" customWidth="1"/>
+    <col min="8194" max="8202" width="13.765625" style="2" customWidth="1"/>
+    <col min="8203" max="8448" width="12.765625" style="2"/>
+    <col min="8449" max="8449" width="14.765625" style="2" customWidth="1"/>
+    <col min="8450" max="8458" width="13.765625" style="2" customWidth="1"/>
+    <col min="8459" max="8704" width="12.765625" style="2"/>
+    <col min="8705" max="8705" width="14.765625" style="2" customWidth="1"/>
+    <col min="8706" max="8714" width="13.765625" style="2" customWidth="1"/>
+    <col min="8715" max="8960" width="12.765625" style="2"/>
+    <col min="8961" max="8961" width="14.765625" style="2" customWidth="1"/>
+    <col min="8962" max="8970" width="13.765625" style="2" customWidth="1"/>
+    <col min="8971" max="9216" width="12.765625" style="2"/>
+    <col min="9217" max="9217" width="14.765625" style="2" customWidth="1"/>
+    <col min="9218" max="9226" width="13.765625" style="2" customWidth="1"/>
+    <col min="9227" max="9472" width="12.765625" style="2"/>
+    <col min="9473" max="9473" width="14.765625" style="2" customWidth="1"/>
+    <col min="9474" max="9482" width="13.765625" style="2" customWidth="1"/>
+    <col min="9483" max="9728" width="12.765625" style="2"/>
+    <col min="9729" max="9729" width="14.765625" style="2" customWidth="1"/>
+    <col min="9730" max="9738" width="13.765625" style="2" customWidth="1"/>
+    <col min="9739" max="9984" width="12.765625" style="2"/>
+    <col min="9985" max="9985" width="14.765625" style="2" customWidth="1"/>
+    <col min="9986" max="9994" width="13.765625" style="2" customWidth="1"/>
+    <col min="9995" max="10240" width="12.765625" style="2"/>
+    <col min="10241" max="10241" width="14.765625" style="2" customWidth="1"/>
+    <col min="10242" max="10250" width="13.765625" style="2" customWidth="1"/>
+    <col min="10251" max="10496" width="12.765625" style="2"/>
+    <col min="10497" max="10497" width="14.765625" style="2" customWidth="1"/>
+    <col min="10498" max="10506" width="13.765625" style="2" customWidth="1"/>
+    <col min="10507" max="10752" width="12.765625" style="2"/>
+    <col min="10753" max="10753" width="14.765625" style="2" customWidth="1"/>
+    <col min="10754" max="10762" width="13.765625" style="2" customWidth="1"/>
+    <col min="10763" max="11008" width="12.765625" style="2"/>
+    <col min="11009" max="11009" width="14.765625" style="2" customWidth="1"/>
+    <col min="11010" max="11018" width="13.765625" style="2" customWidth="1"/>
+    <col min="11019" max="11264" width="12.765625" style="2"/>
+    <col min="11265" max="11265" width="14.765625" style="2" customWidth="1"/>
+    <col min="11266" max="11274" width="13.765625" style="2" customWidth="1"/>
+    <col min="11275" max="11520" width="12.765625" style="2"/>
+    <col min="11521" max="11521" width="14.765625" style="2" customWidth="1"/>
+    <col min="11522" max="11530" width="13.765625" style="2" customWidth="1"/>
+    <col min="11531" max="11776" width="12.765625" style="2"/>
+    <col min="11777" max="11777" width="14.765625" style="2" customWidth="1"/>
+    <col min="11778" max="11786" width="13.765625" style="2" customWidth="1"/>
+    <col min="11787" max="12032" width="12.765625" style="2"/>
+    <col min="12033" max="12033" width="14.765625" style="2" customWidth="1"/>
+    <col min="12034" max="12042" width="13.765625" style="2" customWidth="1"/>
+    <col min="12043" max="12288" width="12.765625" style="2"/>
+    <col min="12289" max="12289" width="14.765625" style="2" customWidth="1"/>
+    <col min="12290" max="12298" width="13.765625" style="2" customWidth="1"/>
+    <col min="12299" max="12544" width="12.765625" style="2"/>
+    <col min="12545" max="12545" width="14.765625" style="2" customWidth="1"/>
+    <col min="12546" max="12554" width="13.765625" style="2" customWidth="1"/>
+    <col min="12555" max="12800" width="12.765625" style="2"/>
+    <col min="12801" max="12801" width="14.765625" style="2" customWidth="1"/>
+    <col min="12802" max="12810" width="13.765625" style="2" customWidth="1"/>
+    <col min="12811" max="13056" width="12.765625" style="2"/>
+    <col min="13057" max="13057" width="14.765625" style="2" customWidth="1"/>
+    <col min="13058" max="13066" width="13.765625" style="2" customWidth="1"/>
+    <col min="13067" max="13312" width="12.765625" style="2"/>
+    <col min="13313" max="13313" width="14.765625" style="2" customWidth="1"/>
+    <col min="13314" max="13322" width="13.765625" style="2" customWidth="1"/>
+    <col min="13323" max="13568" width="12.765625" style="2"/>
+    <col min="13569" max="13569" width="14.765625" style="2" customWidth="1"/>
+    <col min="13570" max="13578" width="13.765625" style="2" customWidth="1"/>
+    <col min="13579" max="13824" width="12.765625" style="2"/>
+    <col min="13825" max="13825" width="14.765625" style="2" customWidth="1"/>
+    <col min="13826" max="13834" width="13.765625" style="2" customWidth="1"/>
+    <col min="13835" max="14080" width="12.765625" style="2"/>
+    <col min="14081" max="14081" width="14.765625" style="2" customWidth="1"/>
+    <col min="14082" max="14090" width="13.765625" style="2" customWidth="1"/>
+    <col min="14091" max="14336" width="12.765625" style="2"/>
+    <col min="14337" max="14337" width="14.765625" style="2" customWidth="1"/>
+    <col min="14338" max="14346" width="13.765625" style="2" customWidth="1"/>
+    <col min="14347" max="14592" width="12.765625" style="2"/>
+    <col min="14593" max="14593" width="14.765625" style="2" customWidth="1"/>
+    <col min="14594" max="14602" width="13.765625" style="2" customWidth="1"/>
+    <col min="14603" max="14848" width="12.765625" style="2"/>
+    <col min="14849" max="14849" width="14.765625" style="2" customWidth="1"/>
+    <col min="14850" max="14858" width="13.765625" style="2" customWidth="1"/>
+    <col min="14859" max="15104" width="12.765625" style="2"/>
+    <col min="15105" max="15105" width="14.765625" style="2" customWidth="1"/>
+    <col min="15106" max="15114" width="13.765625" style="2" customWidth="1"/>
+    <col min="15115" max="15360" width="12.765625" style="2"/>
+    <col min="15361" max="15361" width="14.765625" style="2" customWidth="1"/>
+    <col min="15362" max="15370" width="13.765625" style="2" customWidth="1"/>
+    <col min="15371" max="15616" width="12.765625" style="2"/>
+    <col min="15617" max="15617" width="14.765625" style="2" customWidth="1"/>
+    <col min="15618" max="15626" width="13.765625" style="2" customWidth="1"/>
+    <col min="15627" max="15872" width="12.765625" style="2"/>
+    <col min="15873" max="15873" width="14.765625" style="2" customWidth="1"/>
+    <col min="15874" max="15882" width="13.765625" style="2" customWidth="1"/>
+    <col min="15883" max="16128" width="12.765625" style="2"/>
+    <col min="16129" max="16129" width="14.765625" style="2" customWidth="1"/>
+    <col min="16130" max="16138" width="13.765625" style="2" customWidth="1"/>
+    <col min="16139" max="16384" width="12.765625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="39.950000000000003" customHeight="1">
+    <row r="1" spans="1:10" ht="40" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -51925,7 +51972,7 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" ht="24.95" customHeight="1">
+    <row r="2" spans="1:10" ht="25" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -52003,7 +52050,7 @@
       <c r="I5" s="15"/>
       <c r="J5" s="17"/>
     </row>
-    <row r="6" spans="1:10" ht="24.95" customHeight="1">
+    <row r="6" spans="1:10" ht="25" customHeight="1">
       <c r="A6" s="18" t="s">
         <v>10</v>
       </c>
@@ -52035,7 +52082,7 @@
         <v>119566</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="21.95" customHeight="1">
+    <row r="7" spans="1:10" ht="22" customHeight="1">
       <c r="A7" s="22" t="s">
         <v>11</v>
       </c>
@@ -52227,7 +52274,7 @@
         <v>9914</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="24.95" customHeight="1">
+    <row r="13" spans="1:10" ht="25" customHeight="1">
       <c r="A13" s="22" t="s">
         <v>17</v>
       </c>
@@ -52433,7 +52480,7 @@
       <c r="I19" s="23"/>
       <c r="J19" s="25"/>
     </row>
-    <row r="20" spans="1:10" ht="24.95" customHeight="1">
+    <row r="20" spans="1:10" ht="25" customHeight="1">
       <c r="A20" s="18" t="s">
         <v>10</v>
       </c>
@@ -52465,7 +52512,7 @@
         <v>123780</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="21.95" customHeight="1">
+    <row r="21" spans="1:10" ht="22" customHeight="1">
       <c r="A21" s="22" t="s">
         <v>11</v>
       </c>
@@ -52657,7 +52704,7 @@
         <v>10241</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="24.95" customHeight="1">
+    <row r="27" spans="1:10" ht="25" customHeight="1">
       <c r="A27" s="22" t="s">
         <v>17</v>
       </c>
@@ -52863,7 +52910,7 @@
       <c r="I33" s="23"/>
       <c r="J33" s="25"/>
     </row>
-    <row r="34" spans="1:253" ht="24.95" customHeight="1">
+    <row r="34" spans="1:253" ht="25" customHeight="1">
       <c r="A34" s="18" t="s">
         <v>10</v>
       </c>
@@ -52895,7 +52942,7 @@
         <v>133057</v>
       </c>
     </row>
-    <row r="35" spans="1:253" ht="21.95" customHeight="1">
+    <row r="35" spans="1:253" ht="22" customHeight="1">
       <c r="A35" s="22" t="s">
         <v>11</v>
       </c>
@@ -53087,7 +53134,7 @@
         <v>11073</v>
       </c>
     </row>
-    <row r="41" spans="1:253" ht="24.95" customHeight="1">
+    <row r="41" spans="1:253" ht="25" customHeight="1">
       <c r="A41" s="22" t="s">
         <v>17</v>
       </c>
@@ -53535,7 +53582,7 @@
       <c r="H47" s="15"/>
       <c r="I47" s="15"/>
     </row>
-    <row r="48" spans="1:253" ht="24.95" customHeight="1">
+    <row r="48" spans="1:253" ht="25" customHeight="1">
       <c r="A48" s="18" t="s">
         <v>10</v>
       </c>
@@ -53567,7 +53614,7 @@
         <v>141397</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="21.95" customHeight="1">
+    <row r="49" spans="1:10" ht="22" customHeight="1">
       <c r="A49" s="22" t="s">
         <v>11</v>
       </c>
@@ -53759,7 +53806,7 @@
         <v>11796</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="24.95" customHeight="1">
+    <row r="55" spans="1:10" ht="25" customHeight="1">
       <c r="A55" s="22" t="s">
         <v>17</v>
       </c>
@@ -53965,7 +54012,7 @@
       <c r="I61" s="23"/>
       <c r="J61" s="25"/>
     </row>
-    <row r="62" spans="1:10" ht="24.95" customHeight="1">
+    <row r="62" spans="1:10" ht="25" customHeight="1">
       <c r="A62" s="18" t="s">
         <v>10</v>
       </c>
@@ -53997,7 +54044,7 @@
         <v>152554</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="21.95" customHeight="1">
+    <row r="63" spans="1:10" ht="22" customHeight="1">
       <c r="A63" s="22" t="s">
         <v>11</v>
       </c>
@@ -54189,7 +54236,7 @@
         <v>12422</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="24.95" customHeight="1">
+    <row r="69" spans="1:10" ht="25" customHeight="1">
       <c r="A69" s="22" t="s">
         <v>17</v>
       </c>
@@ -54395,7 +54442,7 @@
       <c r="I75" s="23"/>
       <c r="J75" s="25"/>
     </row>
-    <row r="76" spans="1:10" ht="24.95" customHeight="1">
+    <row r="76" spans="1:10" ht="25" customHeight="1">
       <c r="A76" s="18" t="s">
         <v>10</v>
       </c>
@@ -54427,7 +54474,7 @@
         <v>165932</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="21.95" customHeight="1">
+    <row r="77" spans="1:10" ht="22" customHeight="1">
       <c r="A77" s="22" t="s">
         <v>11</v>
       </c>
@@ -54619,7 +54666,7 @@
         <v>13780</v>
       </c>
     </row>
-    <row r="83" spans="1:253" ht="24.95" customHeight="1">
+    <row r="83" spans="1:253" ht="25" customHeight="1">
       <c r="A83" s="22" t="s">
         <v>17</v>
       </c>
@@ -55083,7 +55130,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="90" spans="1:253" ht="24.95" customHeight="1">
+    <row r="90" spans="1:253" ht="25" customHeight="1">
       <c r="A90" s="18" t="s">
         <v>30</v>
       </c>
@@ -55115,7 +55162,7 @@
         <v>180677</v>
       </c>
     </row>
-    <row r="91" spans="1:253" ht="21.95" customHeight="1">
+    <row r="91" spans="1:253" ht="22" customHeight="1">
       <c r="A91" s="22" t="s">
         <v>31</v>
       </c>
@@ -55307,7 +55354,7 @@
         <v>14994</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="24.95" customHeight="1">
+    <row r="97" spans="1:10" ht="25" customHeight="1">
       <c r="A97" s="22" t="s">
         <v>37</v>
       </c>
@@ -55519,7 +55566,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="24.95" customHeight="1">
+    <row r="104" spans="1:10" ht="25" customHeight="1">
       <c r="A104" s="18" t="s">
         <v>10</v>
       </c>
@@ -55551,7 +55598,7 @@
         <v>196742</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="21.95" customHeight="1">
+    <row r="105" spans="1:10" ht="22" customHeight="1">
       <c r="A105" s="22" t="s">
         <v>11</v>
       </c>
@@ -55743,7 +55790,7 @@
         <v>16257</v>
       </c>
     </row>
-    <row r="111" spans="1:10" ht="24.95" customHeight="1">
+    <row r="111" spans="1:10" ht="25" customHeight="1">
       <c r="A111" s="22" t="s">
         <v>17</v>
       </c>
@@ -55948,7 +55995,7 @@
       <c r="H117" s="15"/>
       <c r="I117" s="15"/>
     </row>
-    <row r="118" spans="1:19" ht="24.95" customHeight="1">
+    <row r="118" spans="1:19" ht="25" customHeight="1">
       <c r="A118" s="18" t="s">
         <v>10</v>
       </c>
@@ -55989,7 +56036,7 @@
       <c r="R118" s="25"/>
       <c r="S118" s="25"/>
     </row>
-    <row r="119" spans="1:19" ht="21.95" customHeight="1">
+    <row r="119" spans="1:19" ht="22" customHeight="1">
       <c r="A119" s="22" t="s">
         <v>11</v>
       </c>
@@ -56235,7 +56282,7 @@
       <c r="R124" s="25"/>
       <c r="S124" s="25"/>
     </row>
-    <row r="125" spans="1:19" ht="24.95" customHeight="1">
+    <row r="125" spans="1:19" ht="25" customHeight="1">
       <c r="A125" s="22" t="s">
         <v>17</v>
       </c>
@@ -56738,7 +56785,7 @@
       <c r="R131" s="25"/>
       <c r="S131" s="25"/>
     </row>
-    <row r="132" spans="1:253" ht="24.95" customHeight="1">
+    <row r="132" spans="1:253" ht="25" customHeight="1">
       <c r="A132" s="18" t="s">
         <v>10</v>
       </c>
@@ -56779,7 +56826,7 @@
       <c r="R132" s="25"/>
       <c r="S132" s="25"/>
     </row>
-    <row r="133" spans="1:253" ht="21.95" customHeight="1">
+    <row r="133" spans="1:253" ht="22" customHeight="1">
       <c r="A133" s="22" t="s">
         <v>11</v>
       </c>
@@ -57025,7 +57072,7 @@
       <c r="R138" s="25"/>
       <c r="S138" s="25"/>
     </row>
-    <row r="139" spans="1:253" ht="24.95" customHeight="1">
+    <row r="139" spans="1:253" ht="25" customHeight="1">
       <c r="A139" s="22" t="s">
         <v>17</v>
       </c>
@@ -57294,7 +57341,7 @@
       <c r="R145" s="25"/>
       <c r="S145" s="25"/>
     </row>
-    <row r="146" spans="1:19" ht="24.95" customHeight="1">
+    <row r="146" spans="1:19" ht="25" customHeight="1">
       <c r="A146" s="18" t="s">
         <v>10</v>
       </c>
@@ -57335,7 +57382,7 @@
       <c r="R146" s="25"/>
       <c r="S146" s="25"/>
     </row>
-    <row r="147" spans="1:19" ht="21.95" customHeight="1">
+    <row r="147" spans="1:19" ht="22" customHeight="1">
       <c r="A147" s="22" t="s">
         <v>11</v>
       </c>
@@ -57581,7 +57628,7 @@
       <c r="R152" s="25"/>
       <c r="S152" s="25"/>
     </row>
-    <row r="153" spans="1:19" ht="24.95" customHeight="1">
+    <row r="153" spans="1:19" ht="25" customHeight="1">
       <c r="A153" s="22" t="s">
         <v>17</v>
       </c>
@@ -57850,7 +57897,7 @@
       <c r="R159" s="25"/>
       <c r="S159" s="25"/>
     </row>
-    <row r="160" spans="1:19" ht="24.95" customHeight="1">
+    <row r="160" spans="1:19" ht="25" customHeight="1">
       <c r="A160" s="18" t="s">
         <v>10</v>
       </c>
@@ -57891,7 +57938,7 @@
       <c r="R160" s="25"/>
       <c r="S160" s="25"/>
     </row>
-    <row r="161" spans="1:19" ht="21.95" customHeight="1">
+    <row r="161" spans="1:19" ht="22" customHeight="1">
       <c r="A161" s="22" t="s">
         <v>11</v>
       </c>
@@ -58137,7 +58184,7 @@
       <c r="R166" s="25"/>
       <c r="S166" s="25"/>
     </row>
-    <row r="167" spans="1:19" ht="24.95" customHeight="1">
+    <row r="167" spans="1:19" ht="25" customHeight="1">
       <c r="A167" s="22" t="s">
         <v>17</v>
       </c>
@@ -58406,7 +58453,7 @@
       <c r="R173" s="25"/>
       <c r="S173" s="25"/>
     </row>
-    <row r="174" spans="1:19" ht="24.95" customHeight="1">
+    <row r="174" spans="1:19" ht="25" customHeight="1">
       <c r="A174" s="18" t="s">
         <v>10</v>
       </c>
@@ -58447,7 +58494,7 @@
       <c r="R174" s="25"/>
       <c r="S174" s="25"/>
     </row>
-    <row r="175" spans="1:19" ht="21.95" customHeight="1">
+    <row r="175" spans="1:19" ht="22" customHeight="1">
       <c r="A175" s="22" t="s">
         <v>11</v>
       </c>
@@ -58693,7 +58740,7 @@
       <c r="R180" s="25"/>
       <c r="S180" s="25"/>
     </row>
-    <row r="181" spans="1:19" ht="24.95" customHeight="1">
+    <row r="181" spans="1:19" ht="25" customHeight="1">
       <c r="A181" s="22" t="s">
         <v>17</v>
       </c>
@@ -58962,7 +59009,7 @@
       <c r="R187" s="25"/>
       <c r="S187" s="25"/>
     </row>
-    <row r="188" spans="1:19" ht="24.95" customHeight="1">
+    <row r="188" spans="1:19" ht="25" customHeight="1">
       <c r="A188" s="18" t="s">
         <v>10</v>
       </c>
@@ -59003,7 +59050,7 @@
       <c r="R188" s="25"/>
       <c r="S188" s="25"/>
     </row>
-    <row r="189" spans="1:19" ht="21.95" customHeight="1">
+    <row r="189" spans="1:19" ht="22" customHeight="1">
       <c r="A189" s="22" t="s">
         <v>11</v>
       </c>
@@ -59249,7 +59296,7 @@
       <c r="R194" s="25"/>
       <c r="S194" s="25"/>
     </row>
-    <row r="195" spans="1:19" ht="24.95" customHeight="1">
+    <row r="195" spans="1:19" ht="25" customHeight="1">
       <c r="A195" s="22" t="s">
         <v>17</v>
       </c>
@@ -59518,7 +59565,7 @@
       <c r="R201" s="25"/>
       <c r="S201" s="25"/>
     </row>
-    <row r="202" spans="1:19" ht="24.95" customHeight="1">
+    <row r="202" spans="1:19" ht="25" customHeight="1">
       <c r="A202" s="18" t="s">
         <v>10</v>
       </c>
@@ -59559,7 +59606,7 @@
       <c r="R202" s="25"/>
       <c r="S202" s="25"/>
     </row>
-    <row r="203" spans="1:19" ht="21.95" customHeight="1">
+    <row r="203" spans="1:19" ht="22" customHeight="1">
       <c r="A203" s="22" t="s">
         <v>11</v>
       </c>
@@ -59805,7 +59852,7 @@
       <c r="R208" s="25"/>
       <c r="S208" s="25"/>
     </row>
-    <row r="209" spans="1:19" ht="24.95" customHeight="1">
+    <row r="209" spans="1:19" ht="25" customHeight="1">
       <c r="A209" s="22" t="s">
         <v>17</v>
       </c>
@@ -60074,7 +60121,7 @@
       <c r="R215" s="25"/>
       <c r="S215" s="25"/>
     </row>
-    <row r="216" spans="1:19" ht="24.95" customHeight="1">
+    <row r="216" spans="1:19" ht="25" customHeight="1">
       <c r="A216" s="18" t="s">
         <v>10</v>
       </c>
@@ -60115,7 +60162,7 @@
       <c r="R216" s="25"/>
       <c r="S216" s="25"/>
     </row>
-    <row r="217" spans="1:19" ht="21.95" customHeight="1">
+    <row r="217" spans="1:19" ht="22" customHeight="1">
       <c r="A217" s="22" t="s">
         <v>11</v>
       </c>
@@ -60361,7 +60408,7 @@
       <c r="R222" s="25"/>
       <c r="S222" s="25"/>
     </row>
-    <row r="223" spans="1:19" ht="24.95" customHeight="1">
+    <row r="223" spans="1:19" ht="25" customHeight="1">
       <c r="A223" s="22" t="s">
         <v>17</v>
       </c>
@@ -60630,7 +60677,7 @@
       <c r="R229" s="25"/>
       <c r="S229" s="25"/>
     </row>
-    <row r="230" spans="1:19" ht="24.95" customHeight="1">
+    <row r="230" spans="1:19" ht="25" customHeight="1">
       <c r="A230" s="18" t="s">
         <v>10</v>
       </c>
@@ -60671,7 +60718,7 @@
       <c r="R230" s="25"/>
       <c r="S230" s="25"/>
     </row>
-    <row r="231" spans="1:19" ht="21.95" customHeight="1">
+    <row r="231" spans="1:19" ht="22" customHeight="1">
       <c r="A231" s="22" t="s">
         <v>11</v>
       </c>
@@ -60917,7 +60964,7 @@
       <c r="R236" s="25"/>
       <c r="S236" s="25"/>
     </row>
-    <row r="237" spans="1:19" ht="24.95" customHeight="1">
+    <row r="237" spans="1:19" ht="25" customHeight="1">
       <c r="A237" s="22" t="s">
         <v>17</v>
       </c>
@@ -61186,7 +61233,7 @@
       <c r="R243" s="25"/>
       <c r="S243" s="25"/>
     </row>
-    <row r="244" spans="1:19" ht="24.95" customHeight="1">
+    <row r="244" spans="1:19" ht="25" customHeight="1">
       <c r="A244" s="18" t="s">
         <v>10</v>
       </c>
@@ -61227,7 +61274,7 @@
       <c r="R244" s="25"/>
       <c r="S244" s="25"/>
     </row>
-    <row r="245" spans="1:19" ht="21.95" customHeight="1">
+    <row r="245" spans="1:19" ht="22" customHeight="1">
       <c r="A245" s="22" t="s">
         <v>11</v>
       </c>
@@ -61473,7 +61520,7 @@
       <c r="R250" s="25"/>
       <c r="S250" s="25"/>
     </row>
-    <row r="251" spans="1:19" ht="24.95" customHeight="1">
+    <row r="251" spans="1:19" ht="25" customHeight="1">
       <c r="A251" s="22" t="s">
         <v>17</v>
       </c>
@@ -61742,7 +61789,7 @@
       <c r="R257" s="25"/>
       <c r="S257" s="25"/>
     </row>
-    <row r="258" spans="1:19" ht="24.95" customHeight="1">
+    <row r="258" spans="1:19" ht="25" customHeight="1">
       <c r="A258" s="18" t="s">
         <v>10</v>
       </c>
@@ -61783,7 +61830,7 @@
       <c r="R258" s="25"/>
       <c r="S258" s="25"/>
     </row>
-    <row r="259" spans="1:19" ht="21.95" customHeight="1">
+    <row r="259" spans="1:19" ht="22" customHeight="1">
       <c r="A259" s="22" t="s">
         <v>11</v>
       </c>
@@ -62029,7 +62076,7 @@
       <c r="R264" s="25"/>
       <c r="S264" s="25"/>
     </row>
-    <row r="265" spans="1:19" ht="24.95" customHeight="1">
+    <row r="265" spans="1:19" ht="25" customHeight="1">
       <c r="A265" s="22" t="s">
         <v>17</v>
       </c>
@@ -62298,7 +62345,7 @@
       <c r="R271" s="25"/>
       <c r="S271" s="25"/>
     </row>
-    <row r="272" spans="1:19" ht="24.95" customHeight="1">
+    <row r="272" spans="1:19" ht="25" customHeight="1">
       <c r="A272" s="18" t="s">
         <v>43</v>
       </c>
@@ -62339,7 +62386,7 @@
       <c r="R272" s="25"/>
       <c r="S272" s="25"/>
     </row>
-    <row r="273" spans="1:19" ht="21.95" customHeight="1">
+    <row r="273" spans="1:19" ht="22" customHeight="1">
       <c r="A273" s="22" t="s">
         <v>44</v>
       </c>
@@ -62585,7 +62632,7 @@
       <c r="R278" s="25"/>
       <c r="S278" s="25"/>
     </row>
-    <row r="279" spans="1:19" ht="24.95" customHeight="1">
+    <row r="279" spans="1:19" ht="25" customHeight="1">
       <c r="A279" s="22" t="s">
         <v>50</v>
       </c>
@@ -62854,7 +62901,7 @@
       <c r="R285" s="25"/>
       <c r="S285" s="25"/>
     </row>
-    <row r="286" spans="1:19" ht="24.95" customHeight="1">
+    <row r="286" spans="1:19" ht="25" customHeight="1">
       <c r="A286" s="18" t="s">
         <v>10</v>
       </c>
@@ -62895,7 +62942,7 @@
       <c r="R286" s="25"/>
       <c r="S286" s="25"/>
     </row>
-    <row r="287" spans="1:19" ht="21.95" customHeight="1">
+    <row r="287" spans="1:19" ht="22" customHeight="1">
       <c r="A287" s="22" t="s">
         <v>11</v>
       </c>
@@ -63141,7 +63188,7 @@
       <c r="R292" s="25"/>
       <c r="S292" s="25"/>
     </row>
-    <row r="293" spans="1:19" ht="24.95" customHeight="1">
+    <row r="293" spans="1:19" ht="25" customHeight="1">
       <c r="A293" s="22" t="s">
         <v>17</v>
       </c>
@@ -63410,7 +63457,7 @@
       <c r="R299" s="25"/>
       <c r="S299" s="25"/>
     </row>
-    <row r="300" spans="1:19" ht="24.95" customHeight="1">
+    <row r="300" spans="1:19" ht="25" customHeight="1">
       <c r="A300" s="18" t="s">
         <v>10</v>
       </c>
@@ -63451,7 +63498,7 @@
       <c r="R300" s="25"/>
       <c r="S300" s="25"/>
     </row>
-    <row r="301" spans="1:19" ht="21.95" customHeight="1">
+    <row r="301" spans="1:19" ht="22" customHeight="1">
       <c r="A301" s="22" t="s">
         <v>11</v>
       </c>
@@ -63697,7 +63744,7 @@
       <c r="R306" s="25"/>
       <c r="S306" s="25"/>
     </row>
-    <row r="307" spans="1:19" ht="24.95" customHeight="1">
+    <row r="307" spans="1:19" ht="25" customHeight="1">
       <c r="A307" s="22" t="s">
         <v>17</v>
       </c>
@@ -63966,7 +64013,7 @@
       <c r="R313" s="25"/>
       <c r="S313" s="25"/>
     </row>
-    <row r="314" spans="1:19" ht="24.95" customHeight="1">
+    <row r="314" spans="1:19" ht="25" customHeight="1">
       <c r="A314" s="18" t="s">
         <v>10</v>
       </c>
@@ -64007,7 +64054,7 @@
       <c r="R314" s="25"/>
       <c r="S314" s="25"/>
     </row>
-    <row r="315" spans="1:19" ht="21.95" customHeight="1">
+    <row r="315" spans="1:19" ht="22" customHeight="1">
       <c r="A315" s="22" t="s">
         <v>11</v>
       </c>
@@ -64253,7 +64300,7 @@
       <c r="R320" s="25"/>
       <c r="S320" s="25"/>
     </row>
-    <row r="321" spans="1:19" ht="24.95" customHeight="1">
+    <row r="321" spans="1:19" ht="25" customHeight="1">
       <c r="A321" s="22" t="s">
         <v>17</v>
       </c>
@@ -64522,7 +64569,7 @@
       <c r="R327" s="25"/>
       <c r="S327" s="25"/>
     </row>
-    <row r="328" spans="1:19" ht="24.95" customHeight="1">
+    <row r="328" spans="1:19" ht="25" customHeight="1">
       <c r="A328" s="18" t="s">
         <v>10</v>
       </c>
@@ -64563,7 +64610,7 @@
       <c r="R328" s="25"/>
       <c r="S328" s="25"/>
     </row>
-    <row r="329" spans="1:19" ht="21.95" customHeight="1">
+    <row r="329" spans="1:19" ht="22" customHeight="1">
       <c r="A329" s="22" t="s">
         <v>44</v>
       </c>
@@ -64809,7 +64856,7 @@
       <c r="R334" s="25"/>
       <c r="S334" s="25"/>
     </row>
-    <row r="335" spans="1:19" ht="24.95" customHeight="1">
+    <row r="335" spans="1:19" ht="25" customHeight="1">
       <c r="A335" s="22" t="s">
         <v>17</v>
       </c>
@@ -65078,7 +65125,7 @@
       <c r="R341" s="25"/>
       <c r="S341" s="25"/>
     </row>
-    <row r="342" spans="1:19" ht="24.95" customHeight="1">
+    <row r="342" spans="1:19" ht="25" customHeight="1">
       <c r="A342" s="18" t="s">
         <v>10</v>
       </c>
@@ -65119,7 +65166,7 @@
       <c r="R342" s="25"/>
       <c r="S342" s="25"/>
     </row>
-    <row r="343" spans="1:19" ht="21.95" customHeight="1">
+    <row r="343" spans="1:19" ht="22" customHeight="1">
       <c r="A343" s="22" t="s">
         <v>11</v>
       </c>
@@ -65365,7 +65412,7 @@
       <c r="R348" s="25"/>
       <c r="S348" s="25"/>
     </row>
-    <row r="349" spans="1:19" ht="24.95" customHeight="1">
+    <row r="349" spans="1:19" ht="25" customHeight="1">
       <c r="A349" s="22" t="s">
         <v>17</v>
       </c>
@@ -65634,7 +65681,7 @@
       <c r="R355" s="25"/>
       <c r="S355" s="25"/>
     </row>
-    <row r="356" spans="1:19" ht="24.95" customHeight="1">
+    <row r="356" spans="1:19" ht="25" customHeight="1">
       <c r="A356" s="18" t="s">
         <v>10</v>
       </c>
@@ -65675,7 +65722,7 @@
       <c r="R356" s="25"/>
       <c r="S356" s="25"/>
     </row>
-    <row r="357" spans="1:19" ht="21.95" customHeight="1">
+    <row r="357" spans="1:19" ht="22" customHeight="1">
       <c r="A357" s="22" t="s">
         <v>11</v>
       </c>
@@ -65921,7 +65968,7 @@
       <c r="R362" s="25"/>
       <c r="S362" s="25"/>
     </row>
-    <row r="363" spans="1:19" ht="24.95" customHeight="1">
+    <row r="363" spans="1:19" ht="25" customHeight="1">
       <c r="A363" s="22" t="s">
         <v>17</v>
       </c>
@@ -67476,31 +67523,31 @@
         <v>10</v>
       </c>
       <c r="B412" s="34">
-        <v>-705240</v>
+        <v>-861383</v>
       </c>
       <c r="C412" s="34">
-        <v>-897274</v>
+        <v>-1091384</v>
       </c>
       <c r="D412" s="34">
-        <v>192035</v>
+        <v>230001</v>
       </c>
       <c r="E412" s="59">
-        <v>2073505</v>
+        <v>2532955</v>
       </c>
       <c r="F412" s="34">
-        <v>1445429</v>
+        <v>1761709</v>
       </c>
       <c r="G412" s="34">
-        <v>628077</v>
+        <v>771247</v>
       </c>
       <c r="H412" s="60">
-        <v>2778745</v>
+        <v>3394339</v>
       </c>
       <c r="I412" s="34">
-        <v>2342703</v>
+        <v>2853093</v>
       </c>
       <c r="J412" s="34">
-        <v>436042</v>
+        <v>541245</v>
       </c>
     </row>
     <row r="413" spans="1:10">
@@ -67508,31 +67555,31 @@
         <v>11</v>
       </c>
       <c r="B413" s="46">
-        <v>-65696</v>
+        <v>-65124</v>
       </c>
       <c r="C413" s="46">
-        <v>-86580</v>
+        <v>-85957</v>
       </c>
       <c r="D413" s="48">
-        <v>20884</v>
+        <v>20834</v>
       </c>
       <c r="E413" s="57">
-        <v>194405</v>
+        <v>194531</v>
       </c>
       <c r="F413" s="46">
-        <v>134402</v>
+        <v>134597</v>
       </c>
       <c r="G413" s="48">
-        <v>60003</v>
+        <v>59934</v>
       </c>
       <c r="H413" s="57">
-        <v>260101</v>
+        <v>259654</v>
       </c>
       <c r="I413" s="46">
-        <v>220982</v>
+        <v>220554</v>
       </c>
       <c r="J413" s="62">
-        <v>39119</v>
+        <v>39100</v>
       </c>
     </row>
     <row r="414" spans="1:10">
@@ -67540,31 +67587,31 @@
         <v>12</v>
       </c>
       <c r="B414" s="46">
-        <v>-68180</v>
+        <v>-67548</v>
       </c>
       <c r="C414" s="46">
-        <v>-89298</v>
+        <v>-88675</v>
       </c>
       <c r="D414" s="48">
-        <v>21118</v>
+        <v>21127</v>
       </c>
       <c r="E414" s="57">
-        <v>190439</v>
+        <v>190631</v>
       </c>
       <c r="F414" s="46">
-        <v>130338</v>
+        <v>130533</v>
       </c>
       <c r="G414" s="48">
-        <v>60102</v>
+        <v>60098</v>
       </c>
       <c r="H414" s="57">
-        <v>258619</v>
+        <v>258179</v>
       </c>
       <c r="I414" s="46">
-        <v>219635</v>
+        <v>219208</v>
       </c>
       <c r="J414" s="48">
-        <v>38984</v>
+        <v>38971</v>
       </c>
     </row>
     <row r="415" spans="1:10">
@@ -67572,31 +67619,31 @@
         <v>13</v>
       </c>
       <c r="B415" s="46">
-        <v>-72222</v>
+        <v>-71395</v>
       </c>
       <c r="C415" s="46">
-        <v>-93011</v>
+        <v>-92389</v>
       </c>
       <c r="D415" s="48">
-        <v>20789</v>
+        <v>20993</v>
       </c>
       <c r="E415" s="57">
-        <v>204960</v>
+        <v>205355</v>
       </c>
       <c r="F415" s="46">
-        <v>143604</v>
+        <v>143799</v>
       </c>
       <c r="G415" s="48">
-        <v>61356</v>
+        <v>61556</v>
       </c>
       <c r="H415" s="57">
-        <v>277182</v>
+        <v>276750</v>
       </c>
       <c r="I415" s="46">
-        <v>236615</v>
+        <v>236188</v>
       </c>
       <c r="J415" s="48">
-        <v>40567</v>
+        <v>40563</v>
       </c>
     </row>
     <row r="416" spans="1:10">
@@ -67604,31 +67651,31 @@
         <v>14</v>
       </c>
       <c r="B416" s="46">
-        <v>-66151</v>
+        <v>-65428</v>
       </c>
       <c r="C416" s="46">
-        <v>-87041</v>
+        <v>-86419</v>
       </c>
       <c r="D416" s="48">
-        <v>20890</v>
+        <v>20990</v>
       </c>
       <c r="E416" s="57">
-        <v>207573</v>
+        <v>207737</v>
       </c>
       <c r="F416" s="46">
-        <v>145116</v>
+        <v>145311</v>
       </c>
       <c r="G416" s="48">
-        <v>62457</v>
+        <v>62426</v>
       </c>
       <c r="H416" s="57">
-        <v>273724</v>
+        <v>273166</v>
       </c>
       <c r="I416" s="46">
-        <v>232157</v>
+        <v>231729</v>
       </c>
       <c r="J416" s="48">
-        <v>41567</v>
+        <v>41436</v>
       </c>
     </row>
     <row r="417" spans="1:10">
@@ -67636,31 +67683,31 @@
         <v>15</v>
       </c>
       <c r="B417" s="46">
-        <v>-67975</v>
+        <v>-67297</v>
       </c>
       <c r="C417" s="46">
-        <v>-89309</v>
+        <v>-88686</v>
       </c>
       <c r="D417" s="48">
-        <v>21333</v>
+        <v>21389</v>
       </c>
       <c r="E417" s="57">
-        <v>209549</v>
+        <v>209717</v>
       </c>
       <c r="F417" s="46">
-        <v>145679</v>
+        <v>145874</v>
       </c>
       <c r="G417" s="48">
-        <v>63869</v>
+        <v>63843</v>
       </c>
       <c r="H417" s="57">
-        <v>277524</v>
+        <v>277015</v>
       </c>
       <c r="I417" s="46">
-        <v>234988</v>
+        <v>234561</v>
       </c>
       <c r="J417" s="48">
-        <v>42536</v>
+        <v>42454</v>
       </c>
     </row>
     <row r="418" spans="1:10">
@@ -67668,31 +67715,31 @@
         <v>16</v>
       </c>
       <c r="B418" s="46">
-        <v>-72935</v>
+        <v>-72228</v>
       </c>
       <c r="C418" s="46">
-        <v>-93264</v>
+        <v>-92642</v>
       </c>
       <c r="D418" s="48">
-        <v>20329</v>
+        <v>20413</v>
       </c>
       <c r="E418" s="57">
-        <v>210524</v>
+        <v>210933</v>
       </c>
       <c r="F418" s="46">
-        <v>145971</v>
+        <v>146166</v>
       </c>
       <c r="G418" s="48">
-        <v>64553</v>
+        <v>64767</v>
       </c>
       <c r="H418" s="57">
-        <v>283460</v>
+        <v>283161</v>
       </c>
       <c r="I418" s="46">
-        <v>239235</v>
+        <v>238808</v>
       </c>
       <c r="J418" s="48">
-        <v>44224</v>
+        <v>44353</v>
       </c>
     </row>
     <row r="419" spans="1:10" ht="24.75" customHeight="1">
@@ -67700,31 +67747,31 @@
         <v>17</v>
       </c>
       <c r="B419" s="46">
-        <v>-70333</v>
+        <v>-69712</v>
       </c>
       <c r="C419" s="46">
-        <v>-87682</v>
+        <v>-87136</v>
       </c>
       <c r="D419" s="48">
-        <v>17348</v>
+        <v>17424</v>
       </c>
       <c r="E419" s="57">
-        <v>212422</v>
+        <v>213385</v>
       </c>
       <c r="F419" s="46">
-        <v>148765</v>
+        <v>148870</v>
       </c>
       <c r="G419" s="48">
-        <v>63657</v>
+        <v>64514</v>
       </c>
       <c r="H419" s="57">
-        <v>282756</v>
+        <v>283097</v>
       </c>
       <c r="I419" s="46">
-        <v>236447</v>
+        <v>236006</v>
       </c>
       <c r="J419" s="48">
-        <v>46309</v>
+        <v>47090</v>
       </c>
     </row>
     <row r="420" spans="1:10">
@@ -67732,31 +67779,31 @@
         <v>18</v>
       </c>
       <c r="B420" s="46">
-        <v>-73195</v>
+        <v>-72521</v>
       </c>
       <c r="C420" s="46">
-        <v>-89162</v>
+        <v>-88605</v>
       </c>
       <c r="D420" s="48">
-        <v>15967</v>
+        <v>16084</v>
       </c>
       <c r="E420" s="57">
-        <v>213204</v>
+        <v>214498</v>
       </c>
       <c r="F420" s="46">
-        <v>149922</v>
+        <v>150041</v>
       </c>
       <c r="G420" s="48">
-        <v>63282</v>
+        <v>64457</v>
       </c>
       <c r="H420" s="57">
-        <v>286399</v>
+        <v>287019</v>
       </c>
       <c r="I420" s="46">
-        <v>239083</v>
+        <v>238646</v>
       </c>
       <c r="J420" s="48">
-        <v>47316</v>
+        <v>48373</v>
       </c>
     </row>
     <row r="421" spans="1:10">
@@ -67764,31 +67811,31 @@
         <v>19</v>
       </c>
       <c r="B421" s="46">
-        <v>-81435</v>
+        <v>-81159</v>
       </c>
       <c r="C421" s="45">
-        <v>-97983</v>
+        <v>-97429</v>
       </c>
       <c r="D421" s="25">
-        <v>16548</v>
+        <v>16269</v>
       </c>
       <c r="E421" s="57">
-        <v>206796</v>
+        <v>208008</v>
       </c>
       <c r="F421" s="25">
-        <v>142907</v>
+        <v>143019</v>
       </c>
       <c r="G421" s="56">
-        <v>63889</v>
+        <v>64988</v>
       </c>
       <c r="H421" s="25">
-        <v>288232</v>
+        <v>289167</v>
       </c>
       <c r="I421" s="46">
-        <v>240890</v>
-      </c>
-      <c r="J421" s="25">
-        <v>47341</v>
+        <v>240448</v>
+      </c>
+      <c r="J421" s="48">
+        <v>48719</v>
       </c>
     </row>
     <row r="422" spans="1:10">
@@ -67796,80 +67843,348 @@
         <v>20</v>
       </c>
       <c r="B422" s="46">
-        <v>-67116</v>
+        <v>-66945</v>
       </c>
       <c r="C422" s="45">
-        <v>-83945</v>
+        <v>-83324</v>
       </c>
       <c r="D422" s="25">
-        <v>16828</v>
+        <v>16379</v>
       </c>
       <c r="E422" s="57">
-        <v>223633</v>
+        <v>224752</v>
       </c>
       <c r="F422" s="25">
-        <v>158725</v>
+        <v>159020</v>
       </c>
       <c r="G422" s="56">
-        <v>64908</v>
+        <v>65732</v>
       </c>
       <c r="H422" s="25">
-        <v>290749</v>
+        <v>291697</v>
       </c>
       <c r="I422" s="46">
-        <v>242670</v>
-      </c>
-      <c r="J422" s="25">
-        <v>48079</v>
+        <v>242344</v>
+      </c>
+      <c r="J422" s="48">
+        <v>49353</v>
       </c>
     </row>
     <row r="423" spans="1:10">
       <c r="A423" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="B423" s="46"/>
-      <c r="C423" s="45"/>
-      <c r="D423" s="25"/>
-      <c r="E423" s="57"/>
-      <c r="F423" s="25"/>
-      <c r="G423" s="56"/>
-      <c r="H423" s="25"/>
-      <c r="I423" s="46"/>
-      <c r="J423" s="25"/>
+      <c r="B423" s="46">
+        <v>-80068</v>
+      </c>
+      <c r="C423" s="45">
+        <v>-98371</v>
+      </c>
+      <c r="D423" s="25">
+        <v>18303</v>
+      </c>
+      <c r="E423" s="57">
+        <v>225062</v>
+      </c>
+      <c r="F423" s="25">
+        <v>156271</v>
+      </c>
+      <c r="G423" s="56">
+        <v>68792</v>
+      </c>
+      <c r="H423" s="25">
+        <v>305130</v>
+      </c>
+      <c r="I423" s="46">
+        <v>254642</v>
+      </c>
+      <c r="J423" s="48">
+        <v>50488</v>
+      </c>
     </row>
     <row r="424" spans="1:10">
       <c r="A424" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="B424" s="46"/>
-      <c r="C424" s="45"/>
-      <c r="D424" s="25"/>
-      <c r="E424" s="57"/>
-      <c r="F424" s="25"/>
-      <c r="G424" s="56"/>
-      <c r="H424" s="25"/>
-      <c r="I424" s="46"/>
-      <c r="J424" s="25"/>
+      <c r="B424" s="46">
+        <v>-81957</v>
+      </c>
+      <c r="C424" s="45">
+        <v>-101751</v>
+      </c>
+      <c r="D424" s="25">
+        <v>19794</v>
+      </c>
+      <c r="E424" s="57">
+        <v>228347</v>
+      </c>
+      <c r="F424" s="25">
+        <v>158208</v>
+      </c>
+      <c r="G424" s="56">
+        <v>70139</v>
+      </c>
+      <c r="H424" s="25">
+        <v>310304</v>
+      </c>
+      <c r="I424" s="46">
+        <v>259959</v>
+      </c>
+      <c r="J424" s="48">
+        <v>50345</v>
+      </c>
     </row>
-    <row r="425" spans="1:10">
-      <c r="A425" s="58"/>
-      <c r="B425" s="25"/>
+    <row r="425" spans="1:10" ht="30.75" customHeight="1">
+      <c r="A425" s="65">
+        <v>2022</v>
+      </c>
+      <c r="B425" s="46"/>
       <c r="C425" s="25"/>
-      <c r="D425" s="25"/>
+      <c r="D425" s="56"/>
       <c r="E425" s="25"/>
-      <c r="F425" s="25"/>
+      <c r="F425" s="46"/>
       <c r="G425" s="25"/>
-      <c r="H425" s="25"/>
+      <c r="H425" s="57"/>
       <c r="I425" s="25"/>
-      <c r="J425" s="25"/>
+      <c r="J425" s="48"/>
     </row>
-    <row r="426" spans="1:10">
-      <c r="A426" s="55" t="s">
-        <v>55</v>
+    <row r="426" spans="1:10" ht="30.75" customHeight="1">
+      <c r="A426" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="B426" s="51">
+        <v>-89692</v>
+      </c>
+      <c r="C426" s="67">
+        <v>-108864</v>
+      </c>
+      <c r="D426" s="68">
+        <v>19172</v>
+      </c>
+      <c r="E426" s="67">
+        <v>224400</v>
+      </c>
+      <c r="F426" s="51">
+        <v>155890</v>
+      </c>
+      <c r="G426" s="67">
+        <v>68511</v>
+      </c>
+      <c r="H426" s="69">
+        <v>314093</v>
+      </c>
+      <c r="I426" s="67">
+        <v>264754</v>
+      </c>
+      <c r="J426" s="54">
+        <v>49339</v>
       </c>
     </row>
     <row r="427" spans="1:10">
-      <c r="A427" s="55" t="s">
+      <c r="A427" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="B427" s="46">
+        <v>-89692</v>
+      </c>
+      <c r="C427" s="25">
+        <v>-108864</v>
+      </c>
+      <c r="D427" s="56">
+        <v>19172</v>
+      </c>
+      <c r="E427" s="25">
+        <v>224400</v>
+      </c>
+      <c r="F427" s="46">
+        <v>155890</v>
+      </c>
+      <c r="G427" s="25">
+        <v>68511</v>
+      </c>
+      <c r="H427" s="57">
+        <v>314093</v>
+      </c>
+      <c r="I427" s="25">
+        <v>264754</v>
+      </c>
+      <c r="J427" s="48">
+        <v>49339</v>
+      </c>
+    </row>
+    <row r="428" spans="1:10">
+      <c r="A428" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="B428" s="46"/>
+      <c r="C428" s="25"/>
+      <c r="D428" s="56"/>
+      <c r="E428" s="25"/>
+      <c r="F428" s="46"/>
+      <c r="G428" s="25"/>
+      <c r="H428" s="57"/>
+      <c r="I428" s="25"/>
+      <c r="J428" s="48"/>
+    </row>
+    <row r="429" spans="1:10">
+      <c r="A429" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="B429" s="46"/>
+      <c r="C429" s="25"/>
+      <c r="D429" s="56"/>
+      <c r="E429" s="25"/>
+      <c r="F429" s="46"/>
+      <c r="G429" s="25"/>
+      <c r="H429" s="57"/>
+      <c r="I429" s="25"/>
+      <c r="J429" s="48"/>
+    </row>
+    <row r="430" spans="1:10">
+      <c r="A430" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="B430" s="46"/>
+      <c r="C430" s="25"/>
+      <c r="D430" s="56"/>
+      <c r="E430" s="25"/>
+      <c r="F430" s="46"/>
+      <c r="G430" s="25"/>
+      <c r="H430" s="57"/>
+      <c r="I430" s="25"/>
+      <c r="J430" s="48"/>
+    </row>
+    <row r="431" spans="1:10">
+      <c r="A431" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="B431" s="46"/>
+      <c r="C431" s="25"/>
+      <c r="D431" s="56"/>
+      <c r="E431" s="25"/>
+      <c r="F431" s="46"/>
+      <c r="G431" s="25"/>
+      <c r="H431" s="57"/>
+      <c r="I431" s="25"/>
+      <c r="J431" s="48"/>
+    </row>
+    <row r="432" spans="1:10">
+      <c r="A432" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="B432" s="46"/>
+      <c r="C432" s="25"/>
+      <c r="D432" s="56"/>
+      <c r="E432" s="25"/>
+      <c r="F432" s="46"/>
+      <c r="G432" s="25"/>
+      <c r="H432" s="57"/>
+      <c r="I432" s="25"/>
+      <c r="J432" s="48"/>
+    </row>
+    <row r="433" spans="1:10" ht="30.75" customHeight="1">
+      <c r="A433" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="B433" s="46"/>
+      <c r="C433" s="25"/>
+      <c r="D433" s="56"/>
+      <c r="E433" s="25"/>
+      <c r="F433" s="46"/>
+      <c r="G433" s="25"/>
+      <c r="H433" s="57"/>
+      <c r="I433" s="25"/>
+      <c r="J433" s="48"/>
+    </row>
+    <row r="434" spans="1:10">
+      <c r="A434" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="B434" s="46"/>
+      <c r="C434" s="25"/>
+      <c r="D434" s="56"/>
+      <c r="E434" s="25"/>
+      <c r="F434" s="46"/>
+      <c r="G434" s="25"/>
+      <c r="H434" s="57"/>
+      <c r="I434" s="25"/>
+      <c r="J434" s="48"/>
+    </row>
+    <row r="435" spans="1:10">
+      <c r="A435" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="B435" s="46"/>
+      <c r="C435" s="25"/>
+      <c r="D435" s="56"/>
+      <c r="E435" s="25"/>
+      <c r="F435" s="46"/>
+      <c r="G435" s="25"/>
+      <c r="H435" s="57"/>
+      <c r="I435" s="25"/>
+      <c r="J435" s="48"/>
+    </row>
+    <row r="436" spans="1:10">
+      <c r="A436" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="B436" s="46"/>
+      <c r="C436" s="25"/>
+      <c r="D436" s="56"/>
+      <c r="E436" s="25"/>
+      <c r="F436" s="46"/>
+      <c r="G436" s="25"/>
+      <c r="H436" s="57"/>
+      <c r="I436" s="25"/>
+      <c r="J436" s="48"/>
+    </row>
+    <row r="437" spans="1:10">
+      <c r="A437" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="B437" s="46"/>
+      <c r="C437" s="25"/>
+      <c r="D437" s="56"/>
+      <c r="E437" s="25"/>
+      <c r="F437" s="46"/>
+      <c r="G437" s="25"/>
+      <c r="H437" s="57"/>
+      <c r="I437" s="25"/>
+      <c r="J437" s="48"/>
+    </row>
+    <row r="438" spans="1:10">
+      <c r="A438" s="70" t="s">
+        <v>22</v>
+      </c>
+      <c r="B438" s="51"/>
+      <c r="C438" s="51"/>
+      <c r="D438" s="68"/>
+      <c r="E438" s="69"/>
+      <c r="F438" s="51"/>
+      <c r="G438" s="68"/>
+      <c r="H438" s="69"/>
+      <c r="I438" s="51"/>
+      <c r="J438" s="54"/>
+    </row>
+    <row r="439" spans="1:10">
+      <c r="A439" s="58"/>
+      <c r="B439" s="25"/>
+      <c r="C439" s="25"/>
+      <c r="D439" s="25"/>
+      <c r="E439" s="25"/>
+      <c r="F439" s="25"/>
+      <c r="G439" s="25"/>
+      <c r="H439" s="25"/>
+      <c r="I439" s="25"/>
+      <c r="J439" s="25"/>
+    </row>
+    <row r="440" spans="1:10">
+      <c r="A440" s="55" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="441" spans="1:10">
+      <c r="A441" s="55" t="s">
         <v>56</v>
       </c>
     </row>
